--- a/download_file/마음손거래내역_20230705040151.xlsx
+++ b/download_file/마음손거래내역_20230705040151.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ysk\Python\python_auto_work\download_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C6E699-D1D0-4F47-A6F2-246F102CD0D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F901310A-E590-4E99-A5BD-D045927D6A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2055" yWindow="930" windowWidth="24105" windowHeight="11925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="마음손거래내역_20230705040151" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="64">
   <si>
     <t>구분</t>
   </si>
@@ -209,6 +209,10 @@
   </si>
   <si>
     <t>일반사업[일반]</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-02-09-10919</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -1244,10 +1248,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1305,34 +1309,32 @@
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="4">
-        <v>44967</v>
+        <v>44966</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="3">
+        <v>35</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1400000</v>
+      </c>
+      <c r="G2" s="3">
         <v>0</v>
-      </c>
-      <c r="G2" s="5">
-        <v>212640</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>62</v>
@@ -1349,28 +1351,28 @@
         <v>13</v>
       </c>
       <c r="C3" s="4">
-        <v>44970</v>
+        <v>44967</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
       </c>
       <c r="G3" s="5">
-        <v>64100</v>
+        <v>212640</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>62</v>
@@ -1390,25 +1392,25 @@
         <v>44970</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
       </c>
       <c r="G4" s="5">
-        <v>70000</v>
+        <v>64100</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>62</v>
@@ -1419,32 +1421,34 @@
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="4">
-        <v>44972</v>
+        <v>44970</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G5" s="3">
+        <v>25</v>
+      </c>
+      <c r="F5" s="3">
         <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>70000</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="J5" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>62</v>
@@ -1455,34 +1459,32 @@
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="4">
-        <v>44974</v>
+        <v>44972</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="3">
+        <v>29</v>
+      </c>
+      <c r="F6" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G6" s="3">
         <v>0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>40000</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="I6" s="3"/>
       <c r="J6" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>62</v>
@@ -1493,32 +1495,34 @@
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="4">
-        <v>44976</v>
+        <v>44974</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="5">
-        <v>1500000</v>
-      </c>
-      <c r="G7" s="3">
+        <v>32</v>
+      </c>
+      <c r="F7" s="3">
         <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>40000</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="3"/>
+      <c r="I7" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="J7" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>62</v>
@@ -1529,34 +1533,32 @@
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="4">
-        <v>44977</v>
+        <v>44976</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="3">
+        <v>35</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1500000</v>
+      </c>
+      <c r="G8" s="3">
         <v>0</v>
       </c>
-      <c r="G8" s="5">
-        <v>33000</v>
-      </c>
       <c r="H8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>62</v>
@@ -1584,8 +1586,8 @@
       <c r="F9" s="3">
         <v>0</v>
       </c>
-      <c r="G9" s="3">
-        <v>500</v>
+      <c r="G9" s="5">
+        <v>33000</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>39</v>
@@ -1594,7 +1596,7 @@
         <v>17</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>62</v>
@@ -1632,7 +1634,7 @@
         <v>17</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>62</v>
@@ -1670,7 +1672,7 @@
         <v>17</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>62</v>
@@ -1708,7 +1710,7 @@
         <v>17</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>62</v>
@@ -1725,28 +1727,28 @@
         <v>13</v>
       </c>
       <c r="C13" s="4">
-        <v>44978</v>
+        <v>44977</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F13" s="3">
         <v>0</v>
       </c>
-      <c r="G13" s="5">
-        <v>25000</v>
+      <c r="G13" s="3">
+        <v>500</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>62</v>
@@ -1775,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="5">
-        <v>75000</v>
+        <v>25000</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>47</v>
@@ -1784,7 +1786,7 @@
         <v>48</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>62</v>
@@ -1795,32 +1797,34 @@
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="4">
-        <v>44981</v>
+        <v>44978</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G15" s="3">
+        <v>46</v>
+      </c>
+      <c r="F15" s="3">
         <v>0</v>
       </c>
+      <c r="G15" s="5">
+        <v>75000</v>
+      </c>
       <c r="H15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="J15" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>62</v>
@@ -1840,13 +1844,13 @@
         <v>44981</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F16" s="5">
-        <v>2334370</v>
+        <v>100000</v>
       </c>
       <c r="G16" s="3">
         <v>0</v>
@@ -1856,7 +1860,7 @@
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>62</v>
@@ -1876,13 +1880,13 @@
         <v>44981</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F17" s="5">
-        <v>14926780</v>
+        <v>2334370</v>
       </c>
       <c r="G17" s="3">
         <v>0</v>
@@ -1892,7 +1896,7 @@
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>62</v>
@@ -1903,7 +1907,7 @@
     </row>
     <row r="18" spans="1:12" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>13</v>
@@ -1912,25 +1916,23 @@
         <v>44981</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="3">
+        <v>56</v>
+      </c>
+      <c r="F18" s="5">
+        <v>14926780</v>
+      </c>
+      <c r="G18" s="3">
         <v>0</v>
-      </c>
-      <c r="G18" s="5">
-        <v>107390</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>62</v>
@@ -1947,19 +1949,19 @@
         <v>13</v>
       </c>
       <c r="C19" s="4">
-        <v>44982</v>
+        <v>44981</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="F19" s="3">
         <v>0</v>
       </c>
       <c r="G19" s="5">
-        <v>20000</v>
+        <v>107390</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>16</v>
@@ -1968,12 +1970,50 @@
         <v>17</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>62</v>
       </c>
       <c r="L19" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="4">
+        <v>44982</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
+        <v>20000</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L20" s="3" t="s">
         <v>19</v>
       </c>
     </row>
